--- a/BBDD/detecciones_legitimo.xlsx
+++ b/BBDD/detecciones_legitimo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/javgarbor2_alum_us_es/Documents/US/TFG/BBDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D6FAECF-424F-4E9C-AEC6-FE7F9D6DF17B}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AE1F0A6-AA98-43F8-8CA1-571D801E6A2F}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1530" windowWidth="35780" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="540" windowWidth="35780" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Fichero pcap</t>
   </si>
@@ -54,64 +54,34 @@
     <t>Básico</t>
   </si>
   <si>
-    <t>1,9 kB</t>
-  </si>
-  <si>
     <t>http-FIX.pcapng</t>
   </si>
   <si>
-    <t>52,7 kB</t>
-  </si>
-  <si>
     <t>youtube-FIX.pcapng</t>
   </si>
   <si>
-    <t>332,7 kB</t>
-  </si>
-  <si>
     <t>01 - DIT (01 - DIT (captura_00001_20240125083640)).pcapng</t>
   </si>
   <si>
     <t>TD</t>
   </si>
   <si>
-    <t>100 MB</t>
-  </si>
-  <si>
     <t>02 - DIT (02 - DIT (captura_00001_20240202080842)).pcapng</t>
   </si>
   <si>
-    <t>3,9 MB</t>
-  </si>
-  <si>
     <t>03 - DIT (03 - DIT (captura_00002_20240125191218)).pcapng</t>
   </si>
   <si>
-    <t>103 MB</t>
-  </si>
-  <si>
     <t>04 - DIT (04 - DIT (captura_00003_20240126181602)).pcapng</t>
   </si>
   <si>
-    <t>109 MB</t>
-  </si>
-  <si>
     <t>05 - DIT (05 - DIT (captura_00004_20240128151951)).pcapng</t>
   </si>
   <si>
-    <t>107 MB</t>
-  </si>
-  <si>
     <t>06 - DIT (06 - DIT (captura_00005_20240130061546)).pcapng</t>
   </si>
   <si>
-    <t>106 MB</t>
-  </si>
-  <si>
     <t>07 - DIT (07 - DIT (captura_00006_20240131165021)).pcapng</t>
-  </si>
-  <si>
-    <t>48 MB</t>
   </si>
 </sst>
 </file>
@@ -256,6 +226,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -522,10 +496,13 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="44.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -547,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -557,8 +534,8 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
+      <c r="D2" s="4">
+        <v>1.9E-3</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
@@ -567,9 +544,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -577,8 +554,8 @@
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
+      <c r="D3" s="4">
+        <v>5.2699999999999997E-2</v>
       </c>
       <c r="E3" s="4">
         <v>61</v>
@@ -587,9 +564,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -597,8 +574,8 @@
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
+      <c r="D4" s="4">
+        <v>0.3327</v>
       </c>
       <c r="E4" s="4">
         <v>40</v>
@@ -607,18 +584,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="112.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>100</v>
       </c>
       <c r="E5" s="4">
         <v>15649</v>
@@ -627,18 +604,18 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="112.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.9</v>
       </c>
       <c r="E6" s="4">
         <v>3421</v>
@@ -647,18 +624,18 @@
         <v>715</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="112.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="4">
+        <v>103</v>
       </c>
       <c r="E7" s="4">
         <v>44016</v>
@@ -667,18 +644,18 @@
         <v>7531</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="112.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D8" s="4">
+        <v>109</v>
       </c>
       <c r="E8" s="4">
         <v>56302</v>
@@ -687,18 +664,18 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="112.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D9" s="4">
+        <v>107</v>
       </c>
       <c r="E9" s="4">
         <v>64674</v>
@@ -707,18 +684,18 @@
         <v>6565</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="112.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="D10" s="4">
+        <v>106</v>
       </c>
       <c r="E10" s="4">
         <v>65257</v>
@@ -727,18 +704,18 @@
         <v>4702</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="112.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <v>48</v>
       </c>
       <c r="E11" s="4">
         <v>32428</v>

--- a/BBDD/detecciones_legitimo.xlsx
+++ b/BBDD/detecciones_legitimo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/javgarbor2_alum_us_es/Documents/US/TFG/BBDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AE1F0A6-AA98-43F8-8CA1-571D801E6A2F}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2983D911-4DA9-470C-8C73-266B926695CC}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="540" windowWidth="35780" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="540" windowWidth="35780" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Fichero pcap</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>07 - DIT (07 - DIT (captura_00006_20240131165021)).pcapng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Contiene Flujos Truncados (Sin SYN)</t>
   </si>
 </sst>
 </file>
@@ -123,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -191,11 +197,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -207,6 +228,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -493,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,7 +531,7 @@
     <col min="1" max="1" width="44.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +550,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -543,8 +573,11 @@
       <c r="F2" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -563,8 +596,11 @@
       <c r="F3" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -583,8 +619,11 @@
       <c r="F4" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -603,8 +642,11 @@
       <c r="F5" s="4">
         <v>2866</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -623,8 +665,11 @@
       <c r="F6" s="4">
         <v>715</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -643,8 +688,14 @@
       <c r="F7" s="4">
         <v>7531</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -663,8 +714,11 @@
       <c r="F8" s="4">
         <v>3096</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -683,8 +737,11 @@
       <c r="F9" s="4">
         <v>6565</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -703,8 +760,11 @@
       <c r="F10" s="4">
         <v>4702</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -723,8 +783,12 @@
       <c r="F11" s="4">
         <v>3104</v>
       </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>